--- a/mySystem/mySystem/xls/PTV/SOP-MFG-418-R01A  瓶口焊接机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-418-R01A  瓶口焊接机运行记录.xlsx
@@ -1482,6 +1482,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1500,77 +1566,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1625,39 +1658,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2001,84 +2001,84 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
       <c r="A6" s="52" t="s">
@@ -2139,7 +2139,7 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2161,7 +2161,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="69"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A10" s="69"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -2201,7 +2201,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A11" s="69"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -2221,11 +2221,11 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2239,7 +2239,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="66" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2261,7 +2261,7 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A14" s="69"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A15" s="69"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A16" s="69"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -2321,11 +2321,11 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -2339,7 +2339,7 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2361,7 +2361,7 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A19" s="69"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
@@ -2381,7 +2381,7 @@
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A20" s="69"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A21" s="69"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -2421,11 +2421,11 @@
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="66" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2439,7 +2439,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2461,7 +2461,7 @@
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A24" s="69"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A25" s="69"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A26" s="69"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2521,11 +2521,11 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -2539,11 +2539,11 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="21" customHeight="1">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -2593,11 +2593,11 @@
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="21" customHeight="1" thickBot="1">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2611,35 +2611,35 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" ht="84" customHeight="1" thickBot="1">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="46" t="s">
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="46" t="s">
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="48"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H3:N3"/>
@@ -2652,12 +2652,12 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2671,13 +2671,13 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="6" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="23" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="23" customWidth="1"/>
     <col min="4" max="5" width="5.125" style="23" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="23" customWidth="1"/>
@@ -2734,122 +2734,122 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104" t="s">
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="99" t="s">
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="101"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="83"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="94" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="94" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="94" t="s">
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="79" t="s">
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="82" t="s">
+      <c r="X4" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="82" t="s">
+      <c r="Y4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="85" t="s">
+      <c r="Z4" s="96" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="22.5">
-      <c r="A5" s="90"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="24" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="99" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="24" t="s">
@@ -2877,7 +2877,7 @@
       <c r="K5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="99" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="24" t="s">
@@ -2892,7 +2892,7 @@
       <c r="P5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="88" t="s">
+      <c r="Q5" s="99" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="24" t="s">
@@ -2907,17 +2907,17 @@
       <c r="U5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="88" t="s">
+      <c r="V5" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="80"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="86"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="97"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="90"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="F6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2943,7 +2943,7 @@
       <c r="K6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="88"/>
+      <c r="L6" s="99"/>
       <c r="M6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="P6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="88"/>
+      <c r="Q6" s="99"/>
       <c r="R6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2969,14 +2969,14 @@
       <c r="U6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="88"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="86"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="97"/>
     </row>
     <row r="7" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="26" t="s">
         <v>41</v>
       </c>
@@ -3000,10 +3000,10 @@
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
       <c r="V7" s="29"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="87"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="98"/>
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1">
       <c r="A8" s="30">
@@ -3336,50 +3336,44 @@
       <c r="Z18" s="44"/>
     </row>
     <row r="19" spans="1:26" ht="93" customHeight="1">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="77" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="78" t="s">
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
     </row>
     <row r="20" spans="1:26">
       <c r="X20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:T3"/>
     <mergeCell ref="A19:Q19"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="W19:Z19"/>
@@ -3396,6 +3390,12 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/PTV/SOP-MFG-418-R01A  瓶口焊接机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-418-R01A  瓶口焊接机运行记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>WELDING PRESSURE</t>
   </si>
@@ -270,76 +270,6 @@
   </si>
   <si>
     <t>产品批号：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1482,95 +1412,149 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1604,60 +1588,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2001,84 +1931,84 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="A2" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
     </row>
     <row r="3" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
       <c r="A6" s="52" t="s">
@@ -2139,7 +2069,7 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2161,7 +2091,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -2181,7 +2111,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -2201,7 +2131,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -2221,11 +2151,11 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="49"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2239,7 +2169,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="68" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2261,7 +2191,7 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2211,7 @@
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -2301,7 +2231,7 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -2321,11 +2251,11 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -2339,7 +2269,7 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2361,7 +2291,7 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
@@ -2381,7 +2311,7 @@
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A20" s="48"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
@@ -2401,7 +2331,7 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -2421,11 +2351,11 @@
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A22" s="49"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="70"/>
+      <c r="B22" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2439,7 +2369,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2461,7 +2391,7 @@
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A24" s="48"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2411,7 @@
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A25" s="48"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -2501,7 +2431,7 @@
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2521,11 +2451,11 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -2539,11 +2469,11 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="21" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -2593,11 +2523,11 @@
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="21" customHeight="1" thickBot="1">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2611,35 +2541,35 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" ht="84" customHeight="1" thickBot="1">
-      <c r="A32" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="68" t="s">
+      <c r="A32" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="68" t="s">
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="70"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H3:N3"/>
@@ -2652,12 +2582,12 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2671,7 +2601,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="U3" sqref="U3:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2730,126 +2660,124 @@
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="101"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="83"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="90" t="s">
+      <c r="Y4" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="96" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="5" spans="1:26" ht="22.5">
-      <c r="A5" s="101"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="24" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2790,7 @@
       <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="88" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="24" t="s">
@@ -2877,7 +2805,7 @@
       <c r="K5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="88" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="24" t="s">
@@ -2892,7 +2820,7 @@
       <c r="P5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="99" t="s">
+      <c r="Q5" s="88" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="24" t="s">
@@ -2907,17 +2835,17 @@
       <c r="U5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="99" t="s">
+      <c r="V5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="91"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="97"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="86"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="101"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +2858,7 @@
       <c r="F6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="99"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2943,7 +2871,7 @@
       <c r="K6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2956,7 +2884,7 @@
       <c r="P6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="99"/>
+      <c r="Q6" s="88"/>
       <c r="R6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2969,16 +2897,16 @@
       <c r="U6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="99"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="97"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="86"/>
     </row>
     <row r="7" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A7" s="102"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -3000,10 +2928,10 @@
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
       <c r="V7" s="29"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="98"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="87"/>
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1">
       <c r="A8" s="30">
@@ -3336,44 +3264,50 @@
       <c r="Z18" s="44"/>
     </row>
     <row r="19" spans="1:26" ht="93" customHeight="1">
-      <c r="A19" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="88" t="s">
+      <c r="A19" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
     </row>
     <row r="20" spans="1:26">
       <c r="X20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:T3"/>
     <mergeCell ref="A19:Q19"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="W19:Z19"/>
@@ -3390,12 +3324,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/PTV/SOP-MFG-418-R01A  瓶口焊接机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-418-R01A  瓶口焊接机运行记录.xlsx
@@ -1275,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1352,9 +1352,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="20" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1394,24 +1391,75 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1430,77 +1478,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1550,44 +1565,26 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1931,91 +1928,91 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="20">
         <v>0</v>
       </c>
@@ -2051,11 +2048,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2069,7 +2066,7 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2091,7 +2088,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="69"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -2111,7 +2108,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A10" s="69"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -2131,7 +2128,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A11" s="69"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -2151,11 +2148,11 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2169,7 +2166,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2191,7 +2188,7 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A14" s="69"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2208,7 @@
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A15" s="69"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -2231,7 +2228,7 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A16" s="69"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -2251,11 +2248,11 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -2269,7 +2266,7 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2291,7 +2288,7 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A19" s="69"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
@@ -2311,7 +2308,7 @@
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A20" s="69"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
@@ -2331,7 +2328,7 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A21" s="69"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -2351,11 +2348,11 @@
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="66" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2369,7 +2366,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2391,7 +2388,7 @@
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A24" s="69"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
@@ -2411,7 +2408,7 @@
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A25" s="69"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -2431,7 +2428,7 @@
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A26" s="69"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2451,11 +2448,11 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -2469,11 +2466,11 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="21" customHeight="1">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -2487,11 +2484,11 @@
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" ht="21" customHeight="1">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -2505,11 +2502,11 @@
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" ht="21" customHeight="1">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -2523,11 +2520,11 @@
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="21" customHeight="1" thickBot="1">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2541,35 +2538,35 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" ht="84" customHeight="1" thickBot="1">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="46" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="46" t="s">
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="48"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H3:N3"/>
@@ -2582,12 +2579,12 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2598,16 +2595,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:Z3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="103" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="23" customWidth="1"/>
     <col min="4" max="5" width="5.125" style="23" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="23" customWidth="1"/>
@@ -2635,7 +2632,7 @@
       <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -2664,120 +2661,120 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104" t="s">
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="101"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="94" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="94" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="94" t="s">
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="79" t="s">
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="82" t="s">
+      <c r="X4" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="82" t="s">
+      <c r="Y4" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="85" t="s">
+      <c r="Z4" s="90" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="22.5">
-      <c r="A5" s="90"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="24" t="s">
         <v>0</v>
       </c>
@@ -2790,7 +2787,7 @@
       <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="93" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="24" t="s">
@@ -2805,7 +2802,7 @@
       <c r="K5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="93" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="24" t="s">
@@ -2820,7 +2817,7 @@
       <c r="P5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="88" t="s">
+      <c r="Q5" s="93" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="24" t="s">
@@ -2835,17 +2832,17 @@
       <c r="U5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="88" t="s">
+      <c r="V5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="80"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="86"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="91"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="90"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2858,7 +2855,7 @@
       <c r="F6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2871,7 +2868,7 @@
       <c r="K6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="88"/>
+      <c r="L6" s="93"/>
       <c r="M6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2884,7 +2881,7 @@
       <c r="P6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="88"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="24" t="s">
         <v>5</v>
       </c>
@@ -2897,420 +2894,384 @@
       <c r="U6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="88"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="86"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="91"/>
     </row>
     <row r="7" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="87"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="92"/>
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="34"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="33"/>
     </row>
     <row r="9" spans="1:26" ht="21" customHeight="1">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>2</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="39"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="38"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="39"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="38"/>
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
-      <c r="A11" s="35">
+      <c r="A11" s="34">
         <v>4</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="39"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="39"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="39"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>7</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="39"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="38"/>
     </row>
     <row r="15" spans="1:26" ht="21" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>8</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="39"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
     </row>
     <row r="16" spans="1:26" ht="21" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>9</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="39"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38"/>
     </row>
     <row r="17" spans="1:26" ht="21" customHeight="1">
-      <c r="A17" s="35">
+      <c r="A17" s="34">
         <v>10</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="39"/>
-    </row>
-    <row r="18" spans="1:26" ht="21" customHeight="1">
-      <c r="A18" s="40">
-        <v>11</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="44"/>
-    </row>
-    <row r="19" spans="1:26" ht="93" customHeight="1">
-      <c r="A19" s="76" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="38"/>
+    </row>
+    <row r="18" spans="1:26" ht="93" customHeight="1">
+      <c r="A18" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="77" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="78" t="s">
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="X20" s="45"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="X19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="W18:Z18"/>
     <mergeCell ref="W4:W7"/>
     <mergeCell ref="X4:X7"/>
     <mergeCell ref="Y4:Y7"/>
@@ -3324,6 +3285,12 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
